--- a/dist/document/dest/2020/10/doctors/25.xlsx
+++ b/dist/document/dest/2020/10/doctors/25.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>470</v>
       </c>
-      <c r="C2" s="1">
-        <v>3877500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>308</v>
       </c>
-      <c r="C3" s="1">
-        <v>1062600</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>142</v>
       </c>
-      <c r="C4" s="1">
-        <v>1171500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>470</v>
       </c>
-      <c r="C5" s="1">
-        <v>810750</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>145</v>
       </c>
-      <c r="C6" s="1">
-        <v>1116500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>179400</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>250</v>
       </c>
-      <c r="C8" s="1">
-        <v>1150000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
-        <v>207900</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>509</v>
       </c>
-      <c r="C10" s="1">
-        <v>4199250</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>298</v>
       </c>
-      <c r="C11" s="1">
-        <v>1737340</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>59</v>
       </c>
-      <c r="C12" s="1">
-        <v>128915</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1140</v>
       </c>
-      <c r="C13" s="1">
-        <v>2941200</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
-        <v>288200</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>532</v>
       </c>
-      <c r="C15" s="1">
-        <v>5266800</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>510</v>
       </c>
-      <c r="C16" s="1">
-        <v>1611600</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>204600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>222</v>
       </c>
-      <c r="C18" s="1">
-        <v>3833940</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>4930</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>262</v>
       </c>
-      <c r="C20" s="1">
-        <v>903900</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>70</v>
       </c>
-      <c r="C21" s="1">
-        <v>233450</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>70</v>
       </c>
-      <c r="C22" s="1">
-        <v>462000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>62</v>
       </c>
-      <c r="C23" s="1">
-        <v>1023000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>545</v>
       </c>
-      <c r="C24" s="1">
-        <v>5695250</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25" s="1">
-        <v>363000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>140</v>
       </c>
-      <c r="C26" s="1">
-        <v>2233000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
-        <v>48300</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>210</v>
       </c>
-      <c r="C28" s="1">
-        <v>966000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>60</v>
       </c>
-      <c r="C29" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>401</v>
       </c>
-      <c r="C30" s="1">
-        <v>8733780</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>870</v>
       </c>
-      <c r="C31" s="1">
-        <v>2401200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>180</v>
       </c>
-      <c r="C32" s="1">
-        <v>621000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>394</v>
       </c>
-      <c r="C33" s="1">
-        <v>1404610</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>180</v>
       </c>
-      <c r="C34" s="1">
-        <v>683100</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>280</v>
       </c>
-      <c r="C35" s="1">
-        <v>966000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
-        <v>106950</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>554</v>
       </c>
-      <c r="C37" s="1">
-        <v>2653660</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>95</v>
       </c>
-      <c r="C38" s="1">
-        <v>658350</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>90</v>
       </c>
-      <c r="C39" s="1">
-        <v>152100</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>60</v>
       </c>
-      <c r="C40" s="1">
-        <v>69300</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>1820</v>
       </c>
-      <c r="C41" s="1">
-        <v>13613600</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>270</v>
       </c>
-      <c r="C42" s="1">
-        <v>1490400</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>115</v>
       </c>
-      <c r="C43" s="1">
-        <v>759000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>150</v>
       </c>
-      <c r="C44" s="1">
-        <v>1072500</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>330</v>
       </c>
-      <c r="C45" s="1">
-        <v>607200</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>120</v>
       </c>
-      <c r="C46" s="1">
-        <v>1518000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>406</v>
       </c>
-      <c r="C47" s="1">
-        <v>864780</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>184</v>
       </c>
-      <c r="C48" s="1">
-        <v>2327600</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>1133</v>
       </c>
-      <c r="C49" s="1">
-        <v>12338370</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>950</v>
       </c>
-      <c r="C50" s="1">
-        <v>3059000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>20</v>
       </c>
-      <c r="C51" s="1">
-        <v>1650000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>427</v>
       </c>
-      <c r="C52" s="1">
-        <v>2818200</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>132</v>
       </c>
-      <c r="C53" s="1">
-        <v>1157640</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>290</v>
       </c>
-      <c r="C54" s="1">
-        <v>2552000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>90</v>
       </c>
-      <c r="C55" s="1">
-        <v>643500</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>90</v>
       </c>
-      <c r="C56" s="1">
-        <v>693000</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>588</v>
       </c>
-      <c r="C57" s="1">
-        <v>3178140</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>120</v>
       </c>
-      <c r="C58" s="1">
-        <v>1036800</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>14</v>
       </c>
-      <c r="C59" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>586</v>
       </c>
-      <c r="C60" s="1">
-        <v>1819530</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>10</v>
       </c>
-      <c r="C61" s="1">
-        <v>1100000</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>80</v>
       </c>
-      <c r="C62" s="1">
-        <v>1214400</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>80</v>
       </c>
-      <c r="C63" s="1">
-        <v>871200</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>180</v>
       </c>
-      <c r="C64" s="1">
-        <v>227700</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="C65" s="1">
-        <v>227700</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>60</v>
       </c>
-      <c r="C66" s="1">
-        <v>154200</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>30</v>
       </c>
-      <c r="C67" s="1">
-        <v>48300</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>390</v>
       </c>
-      <c r="C68" s="1">
-        <v>1614600</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>100</v>
       </c>
-      <c r="C69" s="1">
-        <v>874500</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>28</v>
       </c>
-      <c r="C70" s="1">
-        <v>2310000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>25</v>
       </c>
-      <c r="C71" s="1">
-        <v>220000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>40</v>
       </c>
-      <c r="C72" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>90</v>
       </c>
-      <c r="C73" s="1">
-        <v>258750</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>407</v>
       </c>
-      <c r="C74" s="1">
-        <v>3966622</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>520</v>
       </c>
-      <c r="C75" s="1">
-        <v>2511600</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>420</v>
       </c>
-      <c r="C76" s="1">
-        <v>2221800</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>190</v>
       </c>
-      <c r="C77" s="1">
-        <v>655500</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1241,7 +1013,7 @@
         <v>20354</v>
       </c>
       <c r="C78" s="1">
-        <v>132381607</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/25.xlsx
+++ b/dist/document/dest/2020/10/doctors/25.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,623 +402,1566 @@
         <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>470</v>
+        <v>788</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6501000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>308</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>142</v>
+        <v>680</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2346000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Arthur (Trimebutine 200mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>470</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>250</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="C9" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Binexmetone (Nabumetone 500mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>509</v>
+        <v>165</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1270500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>298</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>618750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1140</v>
+        <v>584</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4818000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>168</v>
+      </c>
+      <c r="C14" s="1">
+        <v>762720</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B15" s="1">
-        <v>532</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>174900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Cigenol</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B16" s="1">
-        <v>510</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>349800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>174900</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B18" s="1">
-        <v>222</v>
+        <v>268</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1562440</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Concor 5mg (Bisoprolol )</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>524700</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>262</v>
+        <v>135</v>
+      </c>
+      <c r="C20" s="1">
+        <v>294975</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>70</v>
+        <v>464</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1197120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>144100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Egodinir (Cefdinir 300mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>545</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>140</v>
+        <v>482</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4771800</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="1">
+        <v>643500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B28" s="1">
-        <v>210</v>
+        <v>430</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1358800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>518100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Goldesome (Esomeprazole 40mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>401</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>259050</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hancetax (Mecobalamin 500mcg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>870</v>
+        <v>282</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4870140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>180</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>155250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Coversyl Plus (Perindopril arginine, indapamide)</v>
       </c>
       <c r="B33" s="1">
-        <v>394</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="1">
+        <v>705600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>180</v>
+        <v>130</v>
+      </c>
+      <c r="C34" s="1">
+        <v>433550</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>280</v>
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="C36" s="1">
+        <v>409200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Leolen Forte (CMP, UTP)</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B37" s="1">
-        <v>554</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>31000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Lertazin (Levocetirizine 5mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B38" s="1">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>156750</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B39" s="1">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="C39" s="1">
+        <v>229900</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B40" s="1">
-        <v>60</v>
+        <v>211</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2204950</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>1820</v>
+        <v>120</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1914000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>270</v>
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>120750</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Meloflam (meloxicam 15mg)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B43" s="1">
-        <v>115</v>
+        <v>168</v>
+      </c>
+      <c r="C43" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>179400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>330</v>
+        <v>810</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3726000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>120</v>
+        <v>360</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2059200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Myomethol (Methocarbamol 500mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>406</v>
+        <v>225</v>
+      </c>
+      <c r="C47" s="1">
+        <v>569250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>184</v>
+        <v>87</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1894860</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>1133</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="1">
+        <v>326700</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>950</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="1">
+        <v>326700</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Palibone (Alendronic 70mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="1">
+        <v>326700</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>427</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>653400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>132</v>
+        <v>517</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11260260</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B54" s="1">
-        <v>290</v>
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>57960</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B55" s="1">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="C55" s="1">
+        <v>124200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B56" s="1">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="C56" s="1">
+        <v>124200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B57" s="1">
-        <v>588</v>
+        <v>75</v>
+      </c>
+      <c r="C57" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B58" s="1">
-        <v>120</v>
+        <v>599</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1653240</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sodinir (Cefdinir 300mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>14</v>
+        <v>150</v>
+      </c>
+      <c r="C59" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>586</v>
+        <v>70</v>
+      </c>
+      <c r="C60" s="1">
+        <v>249550</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>213900</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>106950</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="C63" s="1">
+        <v>160425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>180</v>
+        <v>344</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1226360</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B65" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C65" s="1">
+        <v>341550</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>60</v>
+        <v>330</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B67" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C67" s="1">
+        <v>320850</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Timiroitin</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B68" s="1">
-        <v>390</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>143700</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B69" s="1">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>143700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Leolen Forte (CMP, UTP)</v>
       </c>
       <c r="B70" s="1">
-        <v>28</v>
+        <v>412</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1973480</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+        <v>Lertazin (Levocetirizine 5mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>103950</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>40</v>
+        <v>1478</v>
+      </c>
+      <c r="C72" s="1">
+        <v>11055440</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>90</v>
+        <v>240</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1324800</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Medrol 4mg (Methylprednisolone)</v>
       </c>
       <c r="B74" s="1">
-        <v>407</v>
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>38100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Meloflam (meloxicam 15mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>520</v>
+        <v>30</v>
+      </c>
+      <c r="C75" s="1">
+        <v>198000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Meloflam (meloxicam 15mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>420</v>
+        <v>15</v>
+      </c>
+      <c r="C76" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Zurma (Mosaprid Citrat 5mg)</v>
+        <v>Meloflam (meloxicam 15mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>190</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>190</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1358500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B79" s="1">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>960</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1766400</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>90</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>294</v>
+      </c>
+      <c r="C84" s="1">
+        <v>626220</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1">
+        <v>29820</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45</v>
+      </c>
+      <c r="C86" s="1">
+        <v>95850</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1">
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1100550</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>88550</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1">
+        <v>163350</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>105</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1143450</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>720</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7840800</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1">
+        <v>74060</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>713</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2295860</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>99</v>
+      </c>
+      <c r="C98" s="1">
+        <v>318780</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>396</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2613600</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>90</v>
+      </c>
+      <c r="C103" s="1">
+        <v>789300</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1">
+        <v>131550</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1">
+        <v>131550</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>20</v>
+      </c>
+      <c r="C106" s="1">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>390</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>240</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>30</v>
+      </c>
+      <c r="C109" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>400</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2162000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B113" s="1">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>30</v>
+      </c>
+      <c r="C114" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1">
+        <v>93150</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>30</v>
+      </c>
+      <c r="C116" s="1">
+        <v>93150</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>598</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1856790</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>60</v>
+      </c>
+      <c r="C118" s="1">
+        <v>186300</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>90</v>
+      </c>
+      <c r="C119" s="1">
+        <v>279450</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Tetracyclin 500mg</v>
+      </c>
+      <c r="B123" s="1">
+        <v>168</v>
+      </c>
+      <c r="C123" s="1">
+        <v>163800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B124" s="1">
+        <v>330</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1366200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B125" s="1">
+        <v>30</v>
+      </c>
+      <c r="C125" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B127" s="1">
+        <v>274</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2396130</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>91</v>
+      </c>
+      <c r="C128" s="1">
+        <v>7507500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>29</v>
+      </c>
+      <c r="C130" s="1">
+        <v>255200</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>20</v>
+      </c>
+      <c r="C131" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>90</v>
+      </c>
+      <c r="C132" s="1">
+        <v>258750</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45</v>
+      </c>
+      <c r="C133" s="1">
+        <v>438570</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>314</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3060244</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>30</v>
+      </c>
+      <c r="C135" s="1">
+        <v>292380</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>484</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2337720</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>30</v>
+      </c>
+      <c r="C137" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>415</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2195350</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>15</v>
+      </c>
+      <c r="C140" s="1">
+        <v>79350</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>90</v>
+      </c>
+      <c r="C141" s="1">
+        <v>476100</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>120</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1254000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B78" s="1">
-        <v>20354</v>
-      </c>
-      <c r="C78" s="1">
-        <v>NaN</v>
+      <c r="B143" s="1">
+        <v>21692</v>
+      </c>
+      <c r="C143" s="1">
+        <v>146261194</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C143"/>
   </ignoredErrors>
 </worksheet>
 </file>